--- a/biology/Zoologie/Azawak_(bovin)/Azawak_(bovin).xlsx
+++ b/biology/Zoologie/Azawak_(bovin)/Azawak_(bovin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Azawak[1] est une race bovine commune au Mali et au Niger. Son nom provient de l'Azawagh région éponyme du nord Mali
+L'Azawak est une race bovine commune au Mali et au Niger. Son nom provient de l'Azawagh région éponyme du nord Mali
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est issue de zébus introduits en Afrique de l'est vers 1800 av. J.-C. Ils ont progressivement conquis l'Afrique sub saharienne à la faveur de l'assèchement du climat. Leur meilleure adaptation à ce climat que les bovins européens les a favorisés[2]. 
-Elle provient du Niger, de la région du même nom : Azawak où c'est une race traditionnellement élevée par les Touaregs qui représentait 2,6 millions de têtes en 1985[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est issue de zébus introduits en Afrique de l'est vers 1800 av. J.-C. Ils ont progressivement conquis l'Afrique sub saharienne à la faveur de l'assèchement du climat. Leur meilleure adaptation à ce climat que les bovins européens les a favorisés. 
+Elle provient du Niger, de la région du même nom : Azawak où c'est une race traditionnellement élevée par les Touaregs qui représentait 2,6 millions de têtes en 1985.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe souvent pie rouge ou pie noire, mais aussi fauve mouchetée de blanc. 
 C'est une race de taille moyenne, 110-130 cm pour 300 kg chez la vache.
@@ -576,9 +592,11 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une race mixte. Elle donne 500-600 litres par lactation sur 250-270 jours en système extensif traditionnel. En station avec une nourriture plus abondante, la production atteint 800-1100 litres sur 270-300 jours[4]. Les carcasses ont un bon rendement. (supérieur à 50 %) 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race mixte. Elle donne 500-600 litres par lactation sur 250-270 jours en système extensif traditionnel. En station avec une nourriture plus abondante, la production atteint 800-1100 litres sur 270-300 jours. Les carcasses ont un bon rendement. (supérieur à 50 %) 
 C'est une race très bien adaptée au milieu semi aride du Sahel.
 </t>
         </is>
